--- a/Useful_UBPR_Series.xlsx
+++ b/Useful_UBPR_Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59b6ccd87630485b/Duke/Spring_2025/CS590/Dodd-frank-rollback-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048FB899E4C4E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15A972A-3589-42C4-BCF2-3B95300A5E1D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048FB899E4C4E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E8BF9F-72F5-411E-9ADD-0C10E642F92A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="25600" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2820" yWindow="530" windowWidth="17510" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,12 +238,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,7 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -287,6 +296,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +612,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -609,14 +622,14 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -782,7 +795,7 @@
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="1"/>
@@ -929,5 +942,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Useful_UBPR_Series.xlsx
+++ b/Useful_UBPR_Series.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048FB899E4C4E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E8BF9F-72F5-411E-9ADD-0C10E642F92A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2820" yWindow="530" windowWidth="17510" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-520" yWindow="6580" windowWidth="21300" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
